--- a/biology/Botanique/Myosotis_cameroonensis/Myosotis_cameroonensis.xlsx
+++ b/biology/Botanique/Myosotis_cameroonensis/Myosotis_cameroonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myosotis cameroonensis Cheek &amp; R.Becker est une espèce de plantes de la famille des Boraginaceae et du genre Myosotis, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique fait référence au mont Cameroun, où l'espèce a été observée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique fait référence au mont Cameroun, où l'espèce a été observée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe de 30 cm de hauteur, dont la tige couchée atteint 105 cm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe de 30 cm de hauteur, dont la tige couchée atteint 105 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présente sur les prairies périforestières du mont Cameroun, à une altitude supérieure à 2 000 m, elle a été récoltée par de nombreux botanistes qui ont exploré le site au fil des années, tels que Johnston (1886), Maitland (1931), Brenan (1948), Morton (1958), Tchouto (1992) ou Martin Cheek (1993[1]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présente sur les prairies périforestières du mont Cameroun, à une altitude supérieure à 2 000 m, elle a été récoltée par de nombreux botanistes qui ont exploré le site au fil des années, tels que Johnston (1886), Maitland (1931), Brenan (1948), Morton (1958), Tchouto (1992) ou Martin Cheek (1993).
 </t>
         </is>
       </c>
